--- a/заказы/филиалы и опт/2024/07,24/02,07,24 Ост КИ филиалы/дв 02,07,24 бррсч ост ки от Зверева.xlsx
+++ b/заказы/филиалы и опт/2024/07,24/02,07,24 Ост КИ филиалы/дв 02,07,24 бррсч ост ки от Зверева.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\заказы\филиалы и опт\2024\07,24\02,07,24 Ост филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\заказы\филиалы и опт\2024\07,24\02,07,24 Ост КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CED4063-5E39-49C7-9566-FD735A2A7DD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90986EC0-834E-42E3-A36D-6CC568C8B8F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -616,7 +616,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0_ ;[Red]\-0\ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,6 +662,13 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -750,7 +757,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -776,6 +783,7 @@
     <xf numFmtId="164" fontId="1" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Arial10px" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -1082,10 +1090,10 @@
   <dimension ref="A1:AY500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="V80" sqref="V80"/>
+      <selection pane="bottomRight" activeCell="V113" sqref="V113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7169,7 +7177,10 @@
         <f t="shared" si="5"/>
         <v>220</v>
       </c>
-      <c r="AG57" s="1"/>
+      <c r="AG57" s="25">
+        <f>(803/5)/(P57/100)-100</f>
+        <v>247.61904761904759</v>
+      </c>
       <c r="AH57" s="1"/>
       <c r="AI57" s="1"/>
       <c r="AJ57" s="1"/>
@@ -8454,7 +8465,10 @@
         <v>100</v>
       </c>
       <c r="U69" s="5"/>
-      <c r="V69" s="1"/>
+      <c r="V69" s="13">
+        <f>P69/(Y69/100)-100</f>
+        <v>194.49063789273248</v>
+      </c>
       <c r="W69" s="1">
         <f t="shared" si="47"/>
         <v>12.985753389227753</v>
@@ -13240,7 +13254,10 @@
         <v>190</v>
       </c>
       <c r="U113" s="5"/>
-      <c r="V113" s="1"/>
+      <c r="V113" s="1">
+        <f>P113/(Y113/100)-100</f>
+        <v>75.490196078431381</v>
+      </c>
       <c r="W113" s="1">
         <f t="shared" si="70"/>
         <v>12.98882681564246</v>
